--- a/Reports/Work Load/Task List Report 3 - Preview and Review (Week 3).xlsx
+++ b/Reports/Work Load/Task List Report 3 - Preview and Review (Week 3).xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Task List Report 3 - Preview / Review (Week 3)</t>
   </si>
@@ -176,6 +176,9 @@
     <t>Putting in pause and game over screens into program</t>
   </si>
   <si>
+    <t>Allow player to be able to pause the game to resume or exit. Also ensures there is game over screen that allows user to either retry or exit</t>
+  </si>
+  <si>
     <t>There were some small bugs like, didnt see that the program was rendering a NULL mesh</t>
   </si>
   <si>
@@ -183,6 +186,15 @@
   </si>
   <si>
     <t>Organise by putting codes into functions and seperate various codes with "======" as a divider for better view</t>
+  </si>
+  <si>
+    <t>Tutorial (shooting)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add in a sequential tutorial that is affected either by display time or player's actions. </t>
+  </si>
+  <si>
+    <t>Put in guide into select menu</t>
   </si>
   <si>
     <t>Total</t>
@@ -788,17 +800,11 @@
     <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="4" fillId="3" fontId="4" numFmtId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -894,6 +900,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="28" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
@@ -904,6 +913,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="28" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1080,18 +1092,17 @@
       <c r="E4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="18" t="str">
-        <f>SUMIF(E$11:E28, E4, F$11:F28)</f>
-        <v>5</v>
+      <c r="F4" s="18">
+        <v>11.0</v>
       </c>
-      <c r="G4" s="19">
-        <v>8.0</v>
+      <c r="G4" s="18">
+        <v>11.0</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="19">
         <v>42779.0</v>
       </c>
       <c r="K4" s="14"/>
@@ -1103,7 +1114,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="21"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
         <v>10</v>
@@ -1111,18 +1122,17 @@
       <c r="E5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="22" t="str">
-        <f>SUMIF(E$11:E28, E5, F$11:F28)</f>
-        <v>10</v>
+      <c r="F5" s="21">
+        <v>21.0</v>
       </c>
-      <c r="G5" s="23">
-        <v>13.0</v>
+      <c r="G5" s="21">
+        <v>25.0</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="22">
         <v>42797.0</v>
       </c>
       <c r="K5" s="14"/>
@@ -1134,7 +1144,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="21"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17" t="s">
         <v>13</v>
@@ -1142,18 +1152,17 @@
       <c r="E6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="22" t="str">
-        <f>SUMIF(E$11:E28, E6, F$11:F28)</f>
-        <v>4</v>
+      <c r="F6" s="21">
+        <v>12.0</v>
       </c>
-      <c r="G6" s="23">
-        <v>6.0</v>
+      <c r="G6" s="21">
+        <v>12.0</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="23">
         <v>42793.0</v>
       </c>
       <c r="K6" s="14"/>
@@ -1165,7 +1174,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="26"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="10"/>
       <c r="D7" s="17" t="s">
         <v>16</v>
@@ -1173,18 +1182,17 @@
       <c r="E7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="22" t="str">
-        <f>SUMIF(E$11:E28, E7, F$11:F28)</f>
-        <v>4</v>
+      <c r="F7" s="21">
+        <v>10.0</v>
       </c>
-      <c r="G7" s="23">
-        <v>7.0</v>
+      <c r="G7" s="21">
+        <v>10.0</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="25">
         <v>42796.0</v>
       </c>
       <c r="K7" s="14"/>
@@ -1214,27 +1222,27 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="33"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="31"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1248,511 +1256,545 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37" t="s">
+      <c r="D10" s="34"/>
+      <c r="E10" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42" t="s">
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="43" t="s">
+      <c r="M10" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="44" t="s">
+      <c r="N10" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="29"/>
-      <c r="P10" s="33"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="31"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="45">
+      <c r="B11" s="43">
         <v>1.0</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>3.0</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="50" t="s">
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="51" t="s">
+      <c r="L11" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="18">
         <v>3.0</v>
       </c>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="54"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="52"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="55">
+      <c r="B12" s="53">
         <v>2.0</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="54" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="21">
         <v>4.0</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="60" t="s">
+      <c r="L12" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="21">
         <v>3.0</v>
       </c>
-      <c r="N12" s="61" t="s">
+      <c r="N12" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="58"/>
-      <c r="P12" s="62"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="60"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="55">
+      <c r="B13" s="53">
         <v>3.0</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="54" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="21">
         <v>3.0</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="21">
         <v>4.0</v>
       </c>
-      <c r="N13" s="61" t="s">
+      <c r="N13" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="58"/>
-      <c r="P13" s="62"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="60"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="55">
+      <c r="B14" s="53">
         <v>4.0</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="54" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="21">
         <v>1.0</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="63" t="s">
+      <c r="K14" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="55" t="s">
+      <c r="L14" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="21">
         <v>1.0</v>
       </c>
-      <c r="N14" s="57"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="62"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="60"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="60">
+      <c r="B15" s="58">
         <v>5.0</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="54" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="21">
         <v>1.0</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="L15" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="21">
         <v>1.0</v>
       </c>
-      <c r="N15" s="64" t="s">
+      <c r="N15" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="58"/>
-      <c r="P15" s="62"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="60"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="60">
+      <c r="B16" s="58">
         <v>6.0</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="54" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
+      <c r="F16" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="G16" s="55"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="63" t="s">
+      <c r="K16" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="55"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="62"/>
+      <c r="L16" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="N16" s="55"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="60"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="60">
+      <c r="B17" s="58">
         <v>7.0</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="54" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="21">
         <v>1.0</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="60" t="s">
+      <c r="K17" s="65"/>
+      <c r="L17" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="21">
         <v>1.0</v>
       </c>
-      <c r="N17" s="57"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="62"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="60"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="60">
+      <c r="B18" s="58">
         <v>8.0</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="54" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="21">
         <v>5.0</v>
       </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="60" t="s">
+      <c r="K18" s="65"/>
+      <c r="L18" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="21">
         <v>7.0</v>
       </c>
-      <c r="N18" s="61" t="s">
+      <c r="N18" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="O18" s="58"/>
-      <c r="P18" s="62"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="60"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="60">
+      <c r="B19" s="58">
         <v>9.0</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="66" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="21">
         <v>5.0</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="60" t="s">
+      <c r="K19" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="21">
         <v>5.0</v>
       </c>
-      <c r="N19" s="64" t="s">
-        <v>47</v>
+      <c r="N19" s="63" t="s">
+        <v>48</v>
       </c>
-      <c r="O19" s="58"/>
-      <c r="P19" s="62"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="60"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="60">
+      <c r="B20" s="58">
         <v>10.0</v>
       </c>
-      <c r="C20" s="56" t="s">
-        <v>48</v>
+      <c r="C20" s="54" t="s">
+        <v>49</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="21">
         <v>3.0</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="63" t="s">
-        <v>49</v>
+      <c r="K20" s="62" t="s">
+        <v>50</v>
       </c>
-      <c r="L20" s="65" t="s">
+      <c r="L20" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="21">
         <v>3.0</v>
       </c>
-      <c r="N20" s="57"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="62"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="60"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="67"/>
+      <c r="B21" s="58">
+        <v>11.0</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>51</v>
+      </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
+      <c r="E21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="21">
+        <v>5.0</v>
+      </c>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="62"/>
+      <c r="K21" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="21">
+        <v>5.0</v>
+      </c>
+      <c r="N21" s="55"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="60"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="67"/>
+      <c r="B22" s="58">
+        <v>12.0</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>53</v>
+      </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
+      <c r="E22" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="62"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="N22" s="55"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="60"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="55"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="67"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="62"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="60"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="55"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="67"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="62"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="60"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="55"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="67"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="62"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="60"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="55"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="67"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="62"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="60"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="55"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="67"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="62"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="60"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="55"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="67"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="62"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="60"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="68" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C29" s="69"/>
       <c r="D29" s="70"/>
       <c r="E29" s="71"/>
       <c r="F29" s="71" t="str">
         <f>SUM(F11:F28)</f>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G29" s="72"/>
       <c r="H29" s="69"/>
@@ -1762,7 +1804,7 @@
       <c r="L29" s="74"/>
       <c r="M29" s="71" t="str">
         <f>SUM(M11:M28)</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N29" s="72"/>
       <c r="O29" s="69"/>
@@ -1789,9 +1831,9 @@
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="76" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
-      <c r="C31" s="58"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="8"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -1801,9 +1843,9 @@
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="76" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
-      <c r="M31" s="58"/>
+      <c r="M31" s="56"/>
       <c r="N31" s="8"/>
       <c r="O31" s="77"/>
       <c r="P31" s="78"/>
@@ -1812,7 +1854,7 @@
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="79" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C32" s="80"/>
       <c r="D32" s="80"/>
@@ -1824,7 +1866,7 @@
       <c r="J32" s="81"/>
       <c r="K32" s="82"/>
       <c r="L32" s="79" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M32" s="80"/>
       <c r="N32" s="80"/>
@@ -1844,20 +1886,20 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="86"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="45"/>
       <c r="K34" s="82"/>
       <c r="L34" s="86"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="45"/>
       <c r="Q34" s="83"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -1899,14 +1941,14 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="87"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="5"/>
       <c r="F37" s="88"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
       <c r="K37" s="89"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
@@ -1966,14 +2008,14 @@
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="87"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="5"/>
       <c r="F40" s="88"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
       <c r="K40" s="89"/>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
@@ -19275,34 +19317,37 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="N28:P28"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G29:J29"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B32:J34"/>
+    <mergeCell ref="L32:P34"/>
+    <mergeCell ref="N27:P27"/>
     <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G26:J26"/>
     <mergeCell ref="G28:J28"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B31:D31"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:J37"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F41:J41"/>
@@ -19310,50 +19355,47 @@
     <mergeCell ref="F38:J38"/>
     <mergeCell ref="F40:J40"/>
     <mergeCell ref="L41:N41"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G14:J14"/>
     <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B32:J34"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="L32:P34"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G25:J25"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="N13:P13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:J10"/>
     <mergeCell ref="N14:P14"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N27:P27"/>
     <mergeCell ref="N11:P11"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="N10:P10"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
   </mergeCells>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
